--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dir, AI Platform Engineering</t>
+          <t>Senior Software Engineer II - Backend - AI Search</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYC Health + Hospitals</t>
+          <t>Seismic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, MLflow, Docker, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Snowflake</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=34c920d00f0a63af</t>
+          <t>https://www.indeed.com/viewjob?jk=9ee26f17ffea2401</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Software Engineer - Platform (Frameworks, AI, Automation) Sr. Associate New</t>
+          <t>Senior Software Engineer II - AI/ML</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sixth Street</t>
+          <t>Seismic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, S3, CI/CD, GitHub Actions, Terraform, Git, NoSQL, Python, SQL, R</t>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Snowflake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,59 +536,59 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba0529d8ff520672</t>
+          <t>https://www.indeed.com/viewjob?jk=1b9be3c418bc5646</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Full Stack .NET Architect - GenAI Experience (Remote)</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avanade</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, NoSQL, SQL</t>
+          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3e2c74a9e493b69f</t>
+          <t>https://www.indeed.com/viewjob?jk=da661d8fb0ece801</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Engineer, Machine Learning</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MNTN</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Minneapolis, MN, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, PyTorch, BigQuery, BigQuery, Polars, Python, SQL, R</t>
+          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,67 +606,67 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1d09521a9228f78a</t>
+          <t>https://www.indeed.com/viewjob?jk=f03d32c795783e6d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zendesk</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, Docker, Kubernetes, CI/CD, Snowflake, Power BI, Python, R, Java</t>
+          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b808411d8487a58f</t>
+          <t>https://www.indeed.com/viewjob?jk=7ce987d03cd6c59b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Engineering Systems &amp; Tools Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>McAfee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Frisco, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Terraform, Git, R, Java, Scala, Optimization</t>
+          <t>Data Scientist, RAG, Copilot, Docker, Kubernetes, Snowflake, Databricks, Kafka, Python, R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9610a75feeeb729</t>
+          <t>https://www.indeed.com/viewjob?jk=4210181db0262688</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Robotics Infrastructure Software Intern</t>
+          <t>IT Integration Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anyware Robotics</t>
+          <t>Tungsten Automation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fremont, CA, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,34 +701,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S3, EC2, Docker, CI/CD, GitHub Actions, Terraform, Git, Python, R, Scala</t>
+          <t>Generative AI, RAG, Data Lake, CI/CD, Git, Snowflake, NoSQL, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f5eb15092385e430</t>
+          <t>https://www.indeed.com/viewjob?jk=bb56bd3754295d02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Full Stack Software Engineer</t>
+          <t>Machine Learning Engineer IV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sharetec</t>
+          <t>Panasonic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Irvine, CA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, PostgreSQL, MongoDB, SQL, R, Scala, Optimization</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Python, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,59 +746,59 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3be640f527ac8228</t>
+          <t>https://www.indeed.com/viewjob?jk=00b52d63f45b1e0a</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Azure DevOps Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VeeRteq Solutions Inc.</t>
+          <t>Avita Care Solutions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Libertyville, IL, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kubernetes, AKS, CI/CD, Terraform, Git, Python, R, Scala, Optimization</t>
+          <t>Data Scientist, Machine Learning Engineer, CI/CD, Git, Databricks, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8bc75fc220b17ab9</t>
+          <t>https://www.indeed.com/viewjob?jk=2c48dba4ca99290f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>IT Automation Engineer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>First Community Mortgage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orlando, FL, US USA</t>
+          <t>Murfreesboro, TN, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAG, Docker, Terraform, Git, NoSQL, SQL, R, Java, Scala</t>
+          <t>RAG, Docker, CI/CD, Git, PostgreSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,24 +816,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=05e589f79a796c6d</t>
+          <t>https://www.indeed.com/viewjob?jk=be3722d7e483ab58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
+          <t>Data Scientist (Transmission &amp; Substation Engineering)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>ComEd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Oakbrook Terrace, IL, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
+          <t>Data Scientist, RAG, Hadoop, Dask, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=659d934badec2ca6</t>
+          <t>https://www.indeed.com/viewjob?jk=f8825c9ffb07f54f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>Mutual of Omaha</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,34 +876,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
+          <t>Data Scientist, Generative AI, RAG, CI/CD, Git, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a05a899b5290b81b</t>
+          <t>https://www.indeed.com/viewjob?jk=a094b0555a3afdd7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
+          <t>AI/ML Software Developer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>Takeuchi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Pendergrass, GA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
+          <t>Docker, Kubernetes, Git, Snowflake, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,112 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e0afa21e3480f282</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>The Hartford</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Chicago, IL, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=49b0ecb3824425f0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>The Hartford</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Columbus, OH, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=4785f4e219aa24cd</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer - Intelligent Document Processing</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>The Hartford</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Danbury, CT, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=84b39ab1c65d6768</t>
+          <t>https://www.indeed.com/viewjob?jk=7a073898e33b883f</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,122 +473,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Software Engineer II - Backend - AI Search</t>
+          <t>AI Data Analyst</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seismic</t>
+          <t>Maximus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Tysons, VA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Snowflake</t>
+          <t>Generative AI, RAG, Copilot, TensorFlow, PyTorch, XGBoost, Keras, AWS SageMaker, Snowflake, Databricks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ee26f17ffea2401</t>
+          <t>https://www.indeed.com/viewjob?jk=5908ca8b0f7aacbd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Software Engineer II - AI/ML</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seismic</t>
+          <t>Global Partners LP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Waltham, MA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Snowflake</t>
+          <t>Data Scientist, RAG, S3, Glue, Redshift, BigQuery, Docker, CI/CD, Git, Snowflake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1b9be3c418bc5646</t>
+          <t>https://www.indeed.com/viewjob?jk=b60d9899ce76c629</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Books-A-Million</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Columbus, OH, US USA</t>
+          <t>Birmingham, AL, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
+          <t>RAG, S3, Redshift, BigQuery, Data Lake, Git, BigQuery, Redshift, Python, SQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=da661d8fb0ece801</t>
+          <t>https://www.indeed.com/viewjob?jk=7bb1becaa3bb4909</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>HPC Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Cadre5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, US USA</t>
+          <t>Knoxville, TN, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
+          <t>RAG, TensorFlow, PyTorch, Keras, Docker, Kubernetes, Git, Dask, Python, R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,94 +606,94 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f03d32c795783e6d</t>
+          <t>https://www.indeed.com/viewjob?jk=51ad2b47ec2abe67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software Developer 4 - Redwood City, CA (in-office role)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Redwood City, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generative AI, Synapse, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Databricks, Python, R</t>
+          <t>RAG, XGBoost, MLflow, FastAPI, Docker, Kubernetes, CI/CD, PySpark, R, Scala</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7ce987d03cd6c59b</t>
+          <t>https://www.indeed.com/viewjob?jk=701b0e63a9a8e050</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Cloud Engineer II</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>McAfee</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Frisco, TX, US USA</t>
+          <t>Philadelphia, PA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Copilot, Docker, Kubernetes, Snowflake, Databricks, Kafka, Python, R</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Python, R, Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4210181db0262688</t>
+          <t>https://www.indeed.com/viewjob?jk=3258391b26d34a0f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IT Integration Engineer</t>
+          <t>Senior Cloud Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tungsten Automation</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Philadelphia, PA, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,77 +701,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Data Lake, CI/CD, Git, Snowflake, NoSQL, SQL, R, Scala</t>
+          <t>RAG, Docker, Kubernetes, Jenkins, GitHub Actions, Terraform, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bb56bd3754295d02</t>
+          <t>https://www.indeed.com/viewjob?jk=7ed37c67470dc51b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer IV</t>
+          <t>Sr. Site Reliability Engineer - SRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Panasonic</t>
+          <t>AT&amp;T</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Irvine, CA, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Python, R, Java, Scala, Optimization</t>
+          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=00b52d63f45b1e0a</t>
+          <t>https://www.indeed.com/viewjob?jk=bd62853e90f5d50a</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Sr. Site Reliability Engineer - SRE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Avita Care Solutions</t>
+          <t>AT&amp;T</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Alpharetta, GA, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, CI/CD, Git, Databricks, Python, SQL, R, Scala, Optimization</t>
+          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2c48dba4ca99290f</t>
+          <t>https://www.indeed.com/viewjob?jk=326d5680ae095aba</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IT Automation Engineer</t>
+          <t>Analytics Engineer II</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>First Community Mortgage</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Murfreesboro, TN, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,34 +806,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAG, Docker, CI/CD, Git, PostgreSQL, Python, SQL, R, Java</t>
+          <t>Data Scientist, Data Lake, AKS, Git, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=be3722d7e483ab58</t>
+          <t>https://www.indeed.com/viewjob?jk=3133b5a21a1473ac</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Data Scientist (Transmission &amp; Substation Engineering)</t>
+          <t>Entry-Level AI / Machine Learning Software Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ComEd</t>
+          <t>MTSI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oakbrook Terrace, IL, US USA</t>
+          <t>Huntsville, AL, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Hadoop, Dask, Python, SQL, R, Scala, Optimization</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Git, Matplotlib, Seaborn, Python, R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8825c9ffb07f54f</t>
+          <t>https://www.indeed.com/viewjob?jk=6cd62aed0ccfaf4c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Associate Data Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mutual of Omaha</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>TX, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,52 +876,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, CI/CD, Git, Python, SQL, R, Scala</t>
+          <t>Data Scientist, RAG, BigQuery, Dataflow, Apache Airflow, BigQuery, Python, SQL, R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a094b0555a3afdd7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI/ML Software Developer</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Takeuchi</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Pendergrass, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Docker, Kubernetes, Git, Snowflake, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7a073898e33b883f</t>
+          <t>https://www.indeed.com/viewjob?jk=9291f3f30c723313</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI Data Analyst</t>
+          <t>Sr Software Engineer - Content Platform Engineering</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maximus</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tysons, VA, US USA</t>
+          <t>Glendale, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Copilot, TensorFlow, PyTorch, XGBoost, Keras, AWS SageMaker, Snowflake, Databricks</t>
+          <t>Data Scientist, RAG, Prompt Engineering, TensorFlow, PyTorch, S3, EC2, Docker, Kubernetes, Jenkins</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5908ca8b0f7aacbd</t>
+          <t>https://www.indeed.com/viewjob?jk=2dc4184d266d0070</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Engineering Intern</t>
+          <t>Sr Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Global Partners LP</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Waltham, MA, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, S3, Glue, Redshift, BigQuery, Docker, CI/CD, Git, Snowflake</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, LLaMA, Gemini, TensorFlow, PyTorch, AWS SageMaker, Git, Databricks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,67 +536,67 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b60d9899ce76c629</t>
+          <t>https://www.indeed.com/viewjob?jk=03889315af72efca</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Sr Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Books-A-Million</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Birmingham, AL, US USA</t>
+          <t>Lake Buena Vista, FL, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, Redshift, BigQuery, Data Lake, Git, BigQuery, Redshift, Python, SQL</t>
+          <t>AI Engineer, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, Python, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7bb1becaa3bb4909</t>
+          <t>https://www.indeed.com/viewjob?jk=296b70730c29edd4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HPC Software Engineer</t>
+          <t>Senior Backend Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cadre5</t>
+          <t>Glassbox</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Knoxville, TN, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Keras, Docker, Kubernetes, Git, Dask, Python, R</t>
+          <t>Data Scientist, Copilot, Kubernetes, Git, Kafka, Cassandra, NoSQL, SQL, R, Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,129 +606,129 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=51ad2b47ec2abe67</t>
+          <t>https://www.indeed.com/viewjob?jk=a7eed342df94f18f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Developer 4 - Redwood City, CA (in-office role)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Ascendion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Redwood City, CA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, XGBoost, MLflow, FastAPI, Docker, Kubernetes, CI/CD, PySpark, R, Scala</t>
+          <t>Data Scientist, FAISS, TensorFlow, PyTorch, XGBoost, Git, Hadoop, Python, R, Scala</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=701b0e63a9a8e050</t>
+          <t>https://www.indeed.com/viewjob?jk=24526c3c91ea4416</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cloud Engineer II</t>
+          <t>Specialist - Architecture</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>LTIMindtree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Philadelphia, PA, US USA</t>
+          <t>Irving, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Python, R, Java</t>
+          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3258391b26d34a0f</t>
+          <t>https://www.indeed.com/viewjob?jk=ef5a7c704ef11e31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Cloud Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>CNH Industrial</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Philadelphia, PA, US USA</t>
+          <t>Oak Brook, IL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Jenkins, GitHub Actions, Terraform, Git, Python, R, Scala</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, NoSQL, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7ed37c67470dc51b</t>
+          <t>https://www.indeed.com/viewjob?jk=0d56bb5a0c74a4a6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sr. Site Reliability Engineer - SRE</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AT&amp;T</t>
+          <t>Partify Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Warren, MI, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, RAG, Power BI, Python, SQL, R, Scala, Optimization, Hypothesis Testing</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,24 +746,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bd62853e90f5d50a</t>
+          <t>https://www.indeed.com/viewjob?jk=fac62c8a9b25af94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sr. Site Reliability Engineer - SRE</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AT&amp;T</t>
+          <t>Disney Experiences</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alpharetta, GA, US USA</t>
+          <t>Orlando, FL, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
+          <t>RAG, Docker, Terraform, Git, NoSQL, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,112 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=326d5680ae095aba</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Analytics Engineer II</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Data Scientist, Data Lake, AKS, Git, Power BI, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3133b5a21a1473ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Entry-Level AI / Machine Learning Software Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MTSI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Huntsville, AL, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Git, Matplotlib, Seaborn, Python, R</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6cd62aed0ccfaf4c</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Associate Data Engineer</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CVS Health</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TX, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, BigQuery, Dataflow, Apache Airflow, BigQuery, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9291f3f30c723313</t>
+          <t>https://www.indeed.com/viewjob?jk=ad9da3683bfea092</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sr Software Engineer - Content Platform Engineering</t>
+          <t>Identity AI / ML Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Glendale, CA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>28.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Prompt Engineering, TensorFlow, PyTorch, S3, EC2, Docker, Kubernetes, Jenkins</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2dc4184d266d0070</t>
+          <t>https://www.indeed.com/viewjob?jk=4fff7807f26ccfa6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>Senior Data Scientist - USA Remote</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Danaher Diagnostics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, LLaMA, Gemini, TensorFlow, PyTorch, AWS SageMaker, Git, Databricks</t>
+          <t>Data Scientist, RAG, LLaMA, Mistral, Hugging Face, Prompt Engineering, MLflow, Git, Snowflake, Databricks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=03889315af72efca</t>
+          <t>https://www.indeed.com/viewjob?jk=34dde1de84a8d35d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>Senior Data Analyst, Analytics Engineering</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>Pearl Health</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lake Buena Vista, FL, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI Engineer, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, Python, R</t>
+          <t>RAG, Athena, Redshift, BigQuery, CI/CD, Git, Snowflake, BigQuery, Redshift, Python</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=296b70730c29edd4</t>
+          <t>https://www.indeed.com/viewjob?jk=ab2e931bbf1e84bf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer</t>
+          <t>Full-Stack Senior Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glassbox</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Boulder, CO, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, Kubernetes, Git, Kafka, Cassandra, NoSQL, SQL, R, Java</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, PostgreSQL, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a7eed342df94f18f</t>
+          <t>https://www.indeed.com/viewjob?jk=6d1ef7cc52780120</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>ML Infrastructure Architect</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ascendion</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, FAISS, TensorFlow, PyTorch, XGBoost, Git, Hadoop, Python, R, Scala</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=24526c3c91ea4416</t>
+          <t>https://www.indeed.com/viewjob?jk=5be5e23fbb3c6051</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>AI Deployment Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
+          <t>AI Engineer, RAG, LLaMA, Gemini, Prompt Engineering, S3, Redshift, Terraform, Redshift, Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef5a7c704ef11e31</t>
+          <t>https://www.indeed.com/viewjob?jk=403a6d5b03cee33e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CNH Industrial</t>
+          <t>SWAP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oak Brook, IL, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Git, NoSQL, SQL, R, Scala</t>
+          <t>Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, NoSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0d56bb5a0c74a4a6</t>
+          <t>https://www.indeed.com/viewjob?jk=9db067fbe776dd20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Software Development Engineer in Test</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Partify Inc.</t>
+          <t>Alteryx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Warren, MI, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Power BI, Python, SQL, R, Scala, Optimization, Hypothesis Testing</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,42 +746,322 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fac62c8a9b25af94</t>
+          <t>https://www.indeed.com/viewjob?jk=01a62888fe35817c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Disney Experiences</t>
+          <t>Just Appraised</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Orlando, FL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RAG, Docker, CI/CD, GitHub Actions, Terraform, Git, PostgreSQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b2c46b380ee0c308</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Hartford</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b9aa74a73bfb8b29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The Hartford</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=840834a0721f9428</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The Hartford</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hartford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c990c19acf0c31b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The Hartford</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=63286a781e5a666e</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sr Data Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AdventHealth Corporate</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Altamonte Springs, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RAG, Snowflake, Kafka, Hadoop, Tableau, Python, SQL, R, Java, Optimization</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=49fe852730ed983b</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Divya Stores</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, Copilot, FastAPI, AKS, CI/CD, Git, Python, R</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=56b238b0f6fd6cb7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - ML Platform</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Latitude AI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Terraform, Git, NoSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ad9da3683bfea092</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RAG, PyTorch, Kubernetes, Terraform, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4388f870668aad41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Perception Engineer - Data</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Forterra</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arlington, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e4d12d00e8a3f926</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Identity AI / ML Engineer</t>
+          <t>AI Co-Op</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>ArtiFlex Manufacturing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Wooster, OH, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.9</v>
+        <v>24.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, Azure ML, S3, Glue, Athena, Redshift, BigQuery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4fff7807f26ccfa6</t>
+          <t>https://www.indeed.com/viewjob?jk=9bd105687c5aa984</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Data Scientist - USA Remote</t>
+          <t>Senior Systems Engineer, UDS Data Management</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danaher Diagnostics</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>23.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, LLaMA, Mistral, Hugging Face, Prompt Engineering, MLflow, Git, Snowflake, Databricks</t>
+          <t>Data Scientist, LangChain, RAG, LLaMA, TensorFlow, PyTorch, Redshift, BigQuery, Synapse, Data Lake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=34dde1de84a8d35d</t>
+          <t>https://www.indeed.com/viewjob?jk=8b555f123481de91</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Data Analyst, Analytics Engineering</t>
+          <t>ML Ops Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pearl Health</t>
+          <t>Hitachi Digital Services</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Reading, PA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>21.1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Athena, Redshift, BigQuery, CI/CD, Git, Snowflake, BigQuery, Redshift, Python</t>
+          <t>Data Scientist, RAG, TensorFlow, S3, MLflow, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ab2e931bbf1e84bf</t>
+          <t>https://www.indeed.com/viewjob?jk=5df2e993fb881155</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Full-Stack Senior Software Engineer</t>
+          <t>Data Scientist- Payments Optimization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Worldpay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boulder, CO, US USA</t>
+          <t>Cincinnati, OH, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, PostgreSQL, SQL</t>
+          <t>Data Scientist, TensorFlow, CI/CD, Git, Snowflake, Databricks, PySpark, Hadoop, Tableau, Power BI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,67 +606,67 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6d1ef7cc52780120</t>
+          <t>https://www.indeed.com/viewjob?jk=68e605c94d2c096e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>Software Development Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
+          <t>RAG, S3, EC2, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5be5e23fbb3c6051</t>
+          <t>https://www.indeed.com/viewjob?jk=f6610ed807a1c6f6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AI Deployment Engineer</t>
+          <t>Senior Observability Platform Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Klaviyo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, LLaMA, Gemini, Prompt Engineering, S3, Redshift, Terraform, Redshift, Python</t>
+          <t>RAG, Cortex, Kubernetes, CI/CD, Terraform, Git, Kafka, MySQL, Python, SQL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=403a6d5b03cee33e</t>
+          <t>https://www.indeed.com/viewjob?jk=6db8b13f873a0ab3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>AWS AI &amp; DevOps Intern</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWAP</t>
+          <t>Network Distribution</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Schaumburg, IL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, NoSQL, Python, SQL, R</t>
+          <t>Generative AI, Copilot, TensorFlow, PyTorch, S3, EC2, Glue, CI/CD, Terraform, Git</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9db067fbe776dd20</t>
+          <t>https://www.indeed.com/viewjob?jk=f896c6da0dfabb9a</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Software Development Engineer in Test</t>
+          <t>Information Technology - BI Data Architect</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alteryx</t>
+          <t>TCC Verizon Authorized Retailer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Fishers, IN, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, SQL, R, Java</t>
+          <t>Data Scientist, Copilot, Synapse, Git, Databricks, PySpark, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,24 +746,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01a62888fe35817c</t>
+          <t>https://www.indeed.com/viewjob?jk=a149a432f720bb1c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Sr Data Architect</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Just Appraised</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, Docker, CI/CD, GitHub Actions, Terraform, Git, PostgreSQL, SQL, R, Java</t>
+          <t>AI Engineer, Data Scientist, RAG, Synapse, Data Lake, Snowflake, Databricks, Python, SQL, R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b2c46b380ee0c308</t>
+          <t>https://www.indeed.com/viewjob?jk=3c087e00bef6a423</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AI Data Scientist</t>
+          <t>Software Engineer, Financial Systems</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>Opendoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Columbus, OH, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+          <t>Docker, CI/CD, GitHub Actions, Terraform, Git, Snowflake, Quicksight, Python, SQL, R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,24 +816,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9aa74a73bfb8b29</t>
+          <t>https://www.indeed.com/viewjob?jk=c304968f71791ba5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AI Data Scientist</t>
+          <t>Senior Software Engineer (AI Enablement)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>Redwood Logistics</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+          <t>RAG, AKS, CI/CD, Git, Snowflake, Kafka, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=840834a0721f9428</t>
+          <t>https://www.indeed.com/viewjob?jk=9f0a71f110d4bcaf</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AI Data Scientist</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>NetSPI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Minneapolis, MN, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+          <t>S3, Docker, GitHub Actions, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c990c19acf0c31b5</t>
+          <t>https://www.indeed.com/viewjob?jk=64c43e0c9ccd4fc4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AI Data Scientist</t>
+          <t>Senior Gen AI Application Developer - LangGraph, Bedrock, AWS (ONSITE)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Hartford</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Detroit, MI, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,34 +911,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R</t>
+          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, FAISS, Pinecone, CI/CD, R, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=63286a781e5a666e</t>
+          <t>https://www.indeed.com/viewjob?jk=472f11358fc2e3f7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sr Data Engineer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AdventHealth Corporate</t>
+          <t>Guild Mortgage Company LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Altamonte Springs, FL, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RAG, Snowflake, Kafka, Hadoop, Tableau, Python, SQL, R, Java, Optimization</t>
+          <t>Data Scientist, RAG, TensorFlow, Data Lake, Hadoop, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=49fe852730ed983b</t>
+          <t>https://www.indeed.com/viewjob?jk=b3b9c468aaf3a5d0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI Full Stack Engineer</t>
+          <t>Associate Data Scientist, New College Grad - 2026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Divya Stores</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Foster City, CA, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Gemini, Copilot, FastAPI, AKS, CI/CD, Git, Python, R</t>
+          <t>Data Scientist, Generative AI, RAG, Prompt Engineering, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=56b238b0f6fd6cb7</t>
+          <t>https://www.indeed.com/viewjob?jk=45d3814a2a03d341</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - ML Platform</t>
+          <t>Data Engineer (Python/Spark)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Latitude AI</t>
+          <t>Take-Two Interactive Software, Inc.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, PyTorch, Kubernetes, Terraform, Python, SQL, R, Java, Scala</t>
+          <t>RAG, S3, Docker, Jenkins, Git, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,24 +1026,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4388f870668aad41</t>
+          <t>https://www.indeed.com/viewjob?jk=98762eeaa2f684be</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Perception Engineer - Data</t>
+          <t>Sr Software Engineer - Remote</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Forterra</t>
+          <t>Optum</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Arlington, VA, US USA</t>
+          <t>Basking Ridge, NJ, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
+          <t>Docker, Kubernetes, Jenkins, PySpark, Hadoop, Python, SQL, R, Optimization</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e4d12d00e8a3f926</t>
+          <t>https://www.indeed.com/viewjob?jk=d1aa56bb760b5544</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI Co-Op</t>
+          <t>(USA) Senior, Data Engineer - Senior Software Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ArtiFlex Manufacturing</t>
+          <t>Sam's Club</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wooster, OH, US USA</t>
+          <t>Sunnyvale, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, LLaMA, Azure ML, S3, Glue, Athena, Redshift, BigQuery</t>
+          <t>LangChain, RAG, LLaMA, BigQuery, Dataflow, Docker, Kubernetes, CI/CD, Git, BigQuery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9bd105687c5aa984</t>
+          <t>https://www.indeed.com/viewjob?jk=6bedd59c754ec609</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Systems Engineer, UDS Data Management</t>
+          <t>Sr. MLOps Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>Hudson Manpower</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, TensorFlow, PyTorch, Redshift, BigQuery, Synapse, Data Lake</t>
+          <t>TensorFlow, PyTorch, AWS SageMaker, GCP Vertex AI, Azure ML, MLflow, Docker, Kubernetes, CI/CD, Jenkins</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8b555f123481de91</t>
+          <t>https://www.indeed.com/viewjob?jk=df841e2c966e93a8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ML Ops Engineer</t>
+          <t>Software Engineer Sys 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hitachi Digital Services</t>
+          <t>Lam Research</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reading, PA, US USA</t>
+          <t>Fremont, CA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21.1</v>
+        <v>16.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, S3, MLflow, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions</t>
+          <t>RAG, Data Lake, FastAPI, Docker, Kubernetes, CI/CD, Jenkins, Git, Kafka, Python</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5df2e993fb881155</t>
+          <t>https://www.indeed.com/viewjob?jk=0b87979ce36653f6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Scientist- Payments Optimization</t>
+          <t>Data &amp; ML Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Worldpay</t>
+          <t>EssilorLuxottica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cincinnati, OH, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, CI/CD, Git, Snowflake, Databricks, PySpark, Hadoop, Tableau, Power BI</t>
+          <t>Data Scientist, RAG, Synapse, Data Lake, MLflow, Docker, Kubernetes, AKS, CI/CD, Git</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,59 +606,59 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=68e605c94d2c096e</t>
+          <t>https://www.indeed.com/viewjob?jk=84539e9d32b8f8db</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Development Engineer</t>
+          <t>Senior Data Analyst</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>Konrad Group</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python</t>
+          <t>RAG, Redshift, BigQuery, Git, Snowflake, Databricks, BigQuery, Redshift, Tableau, Power BI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f6610ed807a1c6f6</t>
+          <t>https://www.indeed.com/viewjob?jk=85e5ffc39cf3d166</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Observability Platform Engineer</t>
+          <t>Senior Software Engineer, Data Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Klaviyo</t>
+          <t>Fox Corporation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Cortex, Kubernetes, CI/CD, Terraform, Git, Kafka, MySQL, Python, SQL</t>
+          <t>Copilot, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, NoSQL, Python, SQL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6db8b13f873a0ab3</t>
+          <t>https://www.indeed.com/viewjob?jk=8a2b768ed31bba34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AWS AI &amp; DevOps Intern</t>
+          <t>Mid-Level AI / Machine Learning Software Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Network Distribution</t>
+          <t>MTSI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Schaumburg, IL, US USA</t>
+          <t>Huntsville, AL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,34 +701,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Generative AI, Copilot, TensorFlow, PyTorch, S3, EC2, Glue, CI/CD, Terraform, Git</t>
+          <t>RAG, Hugging Face, TensorFlow, PyTorch, Keras, Docker, Git, Matplotlib, Seaborn, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f896c6da0dfabb9a</t>
+          <t>https://www.indeed.com/viewjob?jk=96ede8f4dfa331b6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Information Technology - BI Data Architect</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TCC Verizon Authorized Retailer</t>
+          <t>Solventum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fishers, IN, US USA</t>
+          <t>Austin, PA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, Synapse, Git, Databricks, PySpark, Power BI, Python, SQL, R</t>
+          <t>LangChain, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,24 +746,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a149a432f720bb1c</t>
+          <t>https://www.indeed.com/viewjob?jk=a3a0ae84f6b87980</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sr Data Architect</t>
+          <t>Intern the Otsuka Way 2026 - GenAI Engineer Intern</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Otsuka</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Princeton, NJ, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, RAG, Synapse, Data Lake, Snowflake, Databricks, Python, SQL, R</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, FAISS, Pinecone, Prompt Engineering, Git, Python, R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3c087e00bef6a423</t>
+          <t>https://www.indeed.com/viewjob?jk=6e718096f3c0913a</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Software Engineer, Financial Systems</t>
+          <t>Senior Analytics Engineer, Sales Analytics (GTM Data Engineering)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Opendoor</t>
+          <t>Klaviyo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Docker, CI/CD, GitHub Actions, Terraform, Git, Snowflake, Quicksight, Python, SQL, R</t>
+          <t>S3, EC2, Terraform, Git, Snowflake, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,24 +816,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c304968f71791ba5</t>
+          <t>https://www.indeed.com/viewjob?jk=721d4b934257a77e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Software Engineer (AI Enablement)</t>
+          <t>Senior Digital Analytics Customer Experience (CX) Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Redwood Logistics</t>
+          <t>Sherwin-Williams</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Cleveland, OH, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, AKS, CI/CD, Git, Snowflake, Kafka, SQL, R, Java, Scala</t>
+          <t>Git, Snowflake, Databricks, Tableau, Power BI, Python, SQL, R, Scala, A/B Testing</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9f0a71f110d4bcaf</t>
+          <t>https://www.indeed.com/viewjob?jk=12fcbbc0dd03080c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Senior Data Scientist - Agentic AI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NetSPI</t>
+          <t>Allstate Insurance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>S3, Docker, GitHub Actions, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Docker, CI/CD, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,67 +886,67 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=64c43e0c9ccd4fc4</t>
+          <t>https://www.indeed.com/viewjob?jk=2ae05a4ee446a6a0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior Gen AI Application Developer - LangGraph, Bedrock, AWS (ONSITE)</t>
+          <t>Senior Engineer I, Observability</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Detroit, MI, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, FAISS, Pinecone, CI/CD, R, Scala</t>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=472f11358fc2e3f7</t>
+          <t>https://www.indeed.com/viewjob?jk=16af568f8829f63e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Engineer I, Observability</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Guild Mortgage Company LLC</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, Data Lake, Hadoop, Tableau, Python, SQL, R, Scala</t>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b3b9c468aaf3a5d0</t>
+          <t>https://www.indeed.com/viewjob?jk=1dd9190af8f5e921</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Associate Data Scientist, New College Grad - 2026</t>
+          <t>Senior Engineer I, Observability</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Foster City, CA, US USA</t>
+          <t>Denver, CO, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Prompt Engineering, Git, Tableau, Power BI, Python, SQL, R</t>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,19 +991,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=45d3814a2a03d341</t>
+          <t>https://www.indeed.com/viewjob?jk=faf1fcd9ebafc0c9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Data Engineer (Python/Spark)</t>
+          <t>Senior Engineer I, Observability</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Take-Two Interactive Software, Inc.</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1012,11 +1012,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, S3, Docker, Jenkins, Git, Python, SQL, R, Java, Scala</t>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,24 +1026,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=98762eeaa2f684be</t>
+          <t>https://www.indeed.com/viewjob?jk=ec3420072b142500</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sr Software Engineer - Remote</t>
+          <t>Senior Engineer I, Observability</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Optum</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Basking Ridge, NJ, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, Jenkins, PySpark, Hadoop, Python, SQL, R, Optimization</t>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,7 +1061,217 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d1aa56bb760b5544</t>
+          <t>https://www.indeed.com/viewjob?jk=93d6453a656d5be2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Engineer III (Software EUP)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ross Dress For Less</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dublin, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Jenkins, GitHub Actions, Git, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=38362cff165251d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI/GIS Engineer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alson Services</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Grand Rapids, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, PostgreSQL, MongoDB, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6b2577bc005b4c8f</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Software Engineer II, Data Services</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fox Corporation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, Python, R</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=717fdee43693f735</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI Engineer I</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BillGO, Inc.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fort Collins, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AI Engineer, Prompt Engineering, CI/CD, NoSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=72139005356b854a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qode</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Basking Ridge, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Data Scientist, XGBoost, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=31fc8ee741d634cf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Condition Monitoring</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Caterpillar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, PyTorch, Git, Snowflake, Python, R, Optimization, Bayesian</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fc8e43d1baa05943</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-24.xlsx
+++ b/daily_matches/job_matches_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(USA) Senior, Data Engineer - Senior Software Engineer</t>
+          <t>Senior Data and Software Engineer I (API) (32_2026.1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sam's Club</t>
+          <t>Affinity Solutions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.3</v>
+        <v>26.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LangChain, RAG, LLaMA, BigQuery, Dataflow, Docker, Kubernetes, CI/CD, Git, BigQuery</t>
+          <t>Generative AI, RAG, Prompt Engineering, Cortex, TensorFlow, S3, Glue, Athena, Redshift, Data Lake</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6bedd59c754ec609</t>
+          <t>https://www.indeed.com/viewjob?jk=6ced5764d3537ea0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sr. MLOps Engineer</t>
+          <t>Sr. Data Quality Engineer I (37_2026.1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hudson Manpower</t>
+          <t>Affinity Solutions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Plano, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.1</v>
+        <v>25.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TensorFlow, PyTorch, AWS SageMaker, GCP Vertex AI, Azure ML, MLflow, Docker, Kubernetes, CI/CD, Jenkins</t>
+          <t>RAG, S3, Glue, Athena, Redshift, BigQuery, Data Lake, Apache Airflow, CI/CD, Jenkins</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df841e2c966e93a8</t>
+          <t>https://www.indeed.com/viewjob?jk=c7933ce6e87f7544</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Software Engineer Sys 3</t>
+          <t>Identity AI / ML Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lam Research</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fremont, CA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Data Lake, FastAPI, Docker, Kubernetes, CI/CD, Jenkins, Git, Kafka, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0b87979ce36653f6</t>
+          <t>https://www.indeed.com/viewjob?jk=91786fa9f4c64147</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data &amp; ML Engineer</t>
+          <t>AI Technical Architect</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EssilorLuxottica</t>
+          <t>Capco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Orlando, FL, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Synapse, Data Lake, MLflow, Docker, Kubernetes, AKS, CI/CD, Git</t>
+          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=84539e9d32b8f8db</t>
+          <t>https://www.indeed.com/viewjob?jk=42acc1d7c9836f52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Data Analyst</t>
+          <t>AI Technical Architect</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Konrad Group</t>
+          <t>Capco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Redshift, BigQuery, Git, Snowflake, Databricks, BigQuery, Redshift, Tableau, Power BI</t>
+          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85e5ffc39cf3d166</t>
+          <t>https://www.indeed.com/viewjob?jk=06e9d21d7dc42caa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Data Services</t>
+          <t>Software Engineer III - Full Stack + AWS + Elastic / Open Search</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fox Corporation</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>16.7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Copilot, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, NoSQL, Python, SQL</t>
+          <t>RAG, S3, EC2, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Kafka, PostgreSQL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,67 +676,67 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8a2b768ed31bba34</t>
+          <t>https://www.indeed.com/viewjob?jk=9d9fbf9321e91c82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mid-Level AI / Machine Learning Software Engineer</t>
+          <t>Data Architect Senior</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MTSI</t>
+          <t>The University of Michigan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huntsville, AL, US USA</t>
+          <t>Ann Arbor, MI, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, TensorFlow, PyTorch, Keras, Docker, Git, Matplotlib, Seaborn, Python</t>
+          <t>RAG, Synapse, CI/CD, Git, Snowflake, Databricks, PostgreSQL, Tableau, Power BI, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=96ede8f4dfa331b6</t>
+          <t>https://www.indeed.com/viewjob?jk=4ccb9adf6566f3d5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Engineer III</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Solventum</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Austin, PA, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LangChain, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
+          <t>RAG, Glue, Athena, Kubernetes, CI/CD, Terraform, Git, Snowflake, PySpark, Kafka</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a3a0ae84f6b87980</t>
+          <t>https://www.indeed.com/viewjob?jk=b3e5e0e8fb1f2fdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intern the Otsuka Way 2026 - GenAI Engineer Intern</t>
+          <t>Identity AI / ML Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otsuka</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Princeton, NJ, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, FAISS, Pinecone, Prompt Engineering, Git, Python, R</t>
+          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Python</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6e718096f3c0913a</t>
+          <t>https://www.indeed.com/viewjob?jk=21d02cf905324c4e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Analytics Engineer, Sales Analytics (GTM Data Engineering)</t>
+          <t>Data Scientist - Remote</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Klaviyo</t>
+          <t>Ocean Blue Solutions</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S3, EC2, Terraform, Git, Snowflake, Tableau, Python, SQL, R, Scala</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, PySpark, Tableau, Power BI, Matplotlib, Python, R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,67 +816,67 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=721d4b934257a77e</t>
+          <t>https://www.indeed.com/viewjob?jk=244c2e160f4e3ba6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Digital Analytics Customer Experience (CX) Engineer</t>
+          <t>Identity Shield &amp; Consumer Fraud - FDP (Backend)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sherwin-Williams</t>
+          <t>Ally Financial</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cleveland, OH, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Git, Snowflake, Databricks, Tableau, Power BI, Python, SQL, R, Scala, A/B Testing</t>
+          <t>Data Scientist, RAG, Glue, Kinesis, Terraform, Git, PostgreSQL, NoSQL, Python, SQL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=12fcbbc0dd03080c</t>
+          <t>https://www.indeed.com/viewjob?jk=a94b094102920ddc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Data Scientist - Agentic AI</t>
+          <t>Sr ML Ops Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Allstate Insurance</t>
+          <t>Early Warning Services</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, Docker, CI/CD, Python, SQL, R, Scala</t>
+          <t>Data Scientist, RAG, MLflow, Docker, Kubernetes, CI/CD, Git, Hadoop, Python, R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,32 +886,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2ae05a4ee446a6a0</t>
+          <t>https://www.indeed.com/viewjob?jk=daf4a4241dc4709a</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior Engineer I, Observability</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Anaplan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Philadelphia, PA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
+          <t>Docker, Kubernetes, CI/CD, Git, PostgreSQL, NoSQL, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=16af568f8829f63e</t>
+          <t>https://www.indeed.com/viewjob?jk=d985dfab97c4672d</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Engineer I, Observability</t>
+          <t>(1357) Senior Reliability Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Nearsure</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
+          <t>Generative AI, EC2, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, R, Scala</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1dd9190af8f5e921</t>
+          <t>https://www.indeed.com/viewjob?jk=b3c8f5bbb025388b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Engineer I, Observability</t>
+          <t>Machine Learning Engineer III - Generative AI - Windreich Department of Artificial Intelligence &amp; Human Health Research</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Mount Sinai Health System</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Denver, CO, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, Jenkins, Terraform, Git, NoSQL, SQL, R</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=faf1fcd9ebafc0c9</t>
+          <t>https://www.indeed.com/viewjob?jk=6c988cf5e8e74111</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Engineer I, Observability</t>
+          <t>Identity AI / ML Engineer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
+          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Python, R, Scala, A/B Testing</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,32 +1026,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ec3420072b142500</t>
+          <t>https://www.indeed.com/viewjob?jk=144e6727ca38d104</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Engineer I, Observability</t>
+          <t>Identity AI / ML Engineer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, R, Scala</t>
+          <t>RAG, spaCy, NLTK, S3, Docker, CI/CD, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,32 +1061,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93d6453a656d5be2</t>
+          <t>https://www.indeed.com/viewjob?jk=65ccf46dbfdb26c1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Engineer III (Software EUP)</t>
+          <t>AIML Services- Data Platform Engineer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ross Dress For Less</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dublin, CA, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RAG, Copilot, CI/CD, Jenkins, GitHub Actions, Git, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,32 +1096,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=38362cff165251d5</t>
+          <t>https://www.indeed.com/viewjob?jk=a25ec63d2a45d72c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AI/GIS Engineer</t>
+          <t>AIML Services- Data Platform Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alson Services</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Grand Rapids, MI, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LangChain, RAG, PostgreSQL, MongoDB, Python, SQL, R, Java, Scala</t>
+          <t>Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,32 +1131,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6b2577bc005b4c8f</t>
+          <t>https://www.indeed.com/viewjob?jk=41cbea8637a10d68</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Software Engineer II, Data Services</t>
+          <t>AIML Services- Data Platform Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fox Corporation</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Cambridge, MA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, Python, R</t>
+          <t>Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,32 +1166,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=717fdee43693f735</t>
+          <t>https://www.indeed.com/viewjob?jk=94ad64f2466c8d7d</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AI Engineer I</t>
+          <t>Senior Data Analyst</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BillGO, Inc.</t>
+          <t>HDR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fort Collins, CO, US USA</t>
+          <t>Charleston, WV, US USA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AI Engineer, Prompt Engineering, CI/CD, NoSQL, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, RAG, Snowflake, Tableau, Power BI, Matplotlib, Seaborn, Python, SQL, R</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1201,24 +1201,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=72139005356b854a</t>
+          <t>https://www.indeed.com/viewjob?jk=30f4d6d3f413c72c</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Software Engineer II - DevOps, Platform Engineering</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Qode</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Basking Ridge, NJ, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Data Scientist, XGBoost, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
+          <t>RAG, Kubernetes, CI/CD, Jenkins, Terraform, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1236,24 +1236,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31fc8ee741d634cf</t>
+          <t>https://www.indeed.com/viewjob?jk=11202771fd209720</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Condition Monitoring</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Caterpillar</t>
+          <t>Capco</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, PyTorch, Git, Snowflake, Python, R, Optimization, Bayesian</t>
+          <t>AI Engineer, Generative AI, RAG, CI/CD, Git, Python, R, Java, Scala</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1271,7 +1271,77 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fc8e43d1baa05943</t>
+          <t>https://www.indeed.com/viewjob?jk=5b9f8300c935d7e1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Capco</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Orlando, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, RAG, CI/CD, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=22b8ff99671f9ffa</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Capco</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, RAG, CI/CD, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1f18056c1a09ca54</t>
         </is>
       </c>
     </row>
